--- a/src/main/resources/static/excelFile/分工序报表.xlsx
+++ b/src/main/resources/static/excelFile/分工序报表.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="19815" windowHeight="7860" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="table_3" sheetId="1" r:id="rId1"/>
+    <sheet name="五金" sheetId="1" r:id="rId1"/>
+    <sheet name="组装" sheetId="2" r:id="rId2"/>
+    <sheet name="表面处理" sheetId="3" r:id="rId3"/>
+    <sheet name="注塑" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>分工序报表</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="29">
+  <si>
+    <t>分工序报表(五金中心)</t>
   </si>
   <si>
     <t>零件名称</t>
@@ -89,6 +92,18 @@
   </si>
   <si>
     <t>采购单位</t>
+  </si>
+  <si>
+    <t>分工序报表(组装中心)</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>分工序报表(表面处理中心)</t>
+  </si>
+  <si>
+    <t>分工序报表(注塑中心)</t>
   </si>
 </sst>
 </file>
@@ -96,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -126,6 +141,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -133,12 +162,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -146,31 +191,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,11 +222,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,11 +238,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,38 +269,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,12 +299,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,7 +401,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,157 +473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,6 +546,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -545,17 +575,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,11 +593,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,6 +625,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -603,30 +642,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -635,10 +650,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,133 +662,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -784,23 +799,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1123,14 +1138,14 @@
   <sheetPr/>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="20.375" customWidth="1"/>
     <col min="6" max="6" width="18.125" customWidth="1"/>
@@ -1138,8 +1153,8 @@
     <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="17.625" customWidth="1"/>
     <col min="10" max="10" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="23.875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="21.375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="23.875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="21.375" style="7" customWidth="1"/>
     <col min="14" max="14" width="11.875" customWidth="1"/>
     <col min="17" max="17" width="14.875" customWidth="1"/>
     <col min="18" max="18" width="13.375" customWidth="1"/>
@@ -1150,94 +1165,489 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:14">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="7"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:24">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X6"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+    <col min="10" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="15.25" customWidth="1"/>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="14" max="14" width="15.375" customWidth="1"/>
+    <col min="17" max="17" width="15.5" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
+    <col min="20" max="20" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:24">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="12:12">
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="10" max="10" width="14.25" customWidth="1"/>
+    <col min="11" max="11" width="10.25" customWidth="1"/>
+    <col min="12" max="12" width="17.375" customWidth="1"/>
+    <col min="13" max="13" width="19.75" customWidth="1"/>
+    <col min="14" max="14" width="15.25" customWidth="1"/>
+    <col min="17" max="17" width="14.875" customWidth="1"/>
+    <col min="18" max="18" width="14.75" customWidth="1"/>
+    <col min="19" max="19" width="10.625" customWidth="1"/>
+    <col min="20" max="20" width="13.125" customWidth="1"/>
+    <col min="22" max="22" width="10.625" customWidth="1"/>
+    <col min="23" max="23" width="12.5" customWidth="1"/>
+    <col min="24" max="24" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:24">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="18.875" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="12" max="12" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="15.625" customWidth="1"/>
+    <col min="14" max="14" width="13.125" customWidth="1"/>
+    <col min="17" max="17" width="16.625" customWidth="1"/>
+    <col min="18" max="18" width="16.25" customWidth="1"/>
+    <col min="20" max="20" width="13.75" customWidth="1"/>
+    <col min="22" max="22" width="12.875" customWidth="1"/>
+    <col min="23" max="23" width="13.875" customWidth="1"/>
+    <col min="24" max="24" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:24">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>24</v>
       </c>
     </row>

--- a/src/main/resources/static/excelFile/分工序报表.xlsx
+++ b/src/main/resources/static/excelFile/分工序报表.xlsx
@@ -4,23 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" activeTab="3"/>
+    <workbookView windowWidth="19815" windowHeight="7860" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="五金" sheetId="1" r:id="rId1"/>
     <sheet name="组装" sheetId="2" r:id="rId2"/>
     <sheet name="表面处理" sheetId="3" r:id="rId3"/>
     <sheet name="注塑" sheetId="4" r:id="rId4"/>
+    <sheet name="汇总" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="29">
-  <si>
-    <t>分工序报表(五金中心)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="25">
   <si>
     <t>零件名称</t>
   </si>
@@ -94,16 +92,7 @@
     <t>采购单位</t>
   </si>
   <si>
-    <t>分工序报表(组装中心)</t>
-  </si>
-  <si>
     <t>s</t>
-  </si>
-  <si>
-    <t>分工序报表(表面处理中心)</t>
-  </si>
-  <si>
-    <t>分工序报表(注塑中心)</t>
   </si>
 </sst>
 </file>
@@ -111,10 +100,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -141,6 +130,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -148,12 +161,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -162,55 +205,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,63 +235,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,43 +288,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,144 +468,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -508,15 +497,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,38 +509,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,16 +536,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,6 +571,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -622,26 +594,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -650,10 +602,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,153 +614,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1136,16 +1079,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="9" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="20.375" customWidth="1"/>
     <col min="6" max="6" width="18.125" customWidth="1"/>
@@ -1153,8 +1096,8 @@
     <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="17.625" customWidth="1"/>
     <col min="10" max="10" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="23.875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="21.375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="23.875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="21.375" style="4" customWidth="1"/>
     <col min="14" max="14" width="11.875" customWidth="1"/>
     <col min="17" max="17" width="14.875" customWidth="1"/>
     <col min="18" max="18" width="13.375" customWidth="1"/>
@@ -1164,102 +1107,81 @@
     <col min="24" max="24" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:14">
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:24">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1268,13 +1190,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
@@ -1291,107 +1213,86 @@
     <col min="20" max="20" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:14">
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:24">
       <c r="A1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:24">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="X2" s="4" t="s">
+    <row r="5" spans="12:12">
+      <c r="L5" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="12:12">
-      <c r="L6" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1400,13 +1301,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+      <selection activeCell="A1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="21.25" customWidth="1"/>
@@ -1429,102 +1330,81 @@
     <col min="24" max="24" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:14">
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:24">
       <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:24">
-      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1533,13 +1413,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
@@ -1559,102 +1439,188 @@
     <col min="24" max="24" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:14">
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:24">
       <c r="A1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:24">
-      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
-  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="19.875" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="17.75" customWidth="1"/>
+    <col min="13" max="13" width="15.75" customWidth="1"/>
+    <col min="14" max="14" width="15.125" customWidth="1"/>
+    <col min="17" max="17" width="15.125" customWidth="1"/>
+    <col min="18" max="18" width="16.75" customWidth="1"/>
+    <col min="19" max="19" width="14.125" customWidth="1"/>
+    <col min="20" max="20" width="14.5" customWidth="1"/>
+    <col min="23" max="23" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:24">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/src/main/resources/static/excelFile/分工序报表.xlsx
+++ b/src/main/resources/static/excelFile/分工序报表.xlsx
@@ -18,7 +18,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="28">
+  <si>
+    <t>组件名称</t>
+  </si>
   <si>
     <t>零件名称</t>
   </si>
@@ -93,6 +96,12 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>采购单位</t>
+  </si>
+  <si>
+    <t>包装运输费</t>
   </si>
 </sst>
 </file>
@@ -100,10 +109,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -130,38 +139,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,44 +206,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,46 +221,62 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,12 +297,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -306,7 +375,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,55 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,31 +459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,61 +471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,26 +502,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +545,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -567,15 +574,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,6 +592,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -602,10 +611,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,133 +623,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,36 +1088,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
-    <col min="9" max="9" width="17.625" customWidth="1"/>
-    <col min="10" max="10" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="23.875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="21.375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.875" customWidth="1"/>
-    <col min="17" max="17" width="14.875" customWidth="1"/>
-    <col min="18" max="18" width="13.375" customWidth="1"/>
-    <col min="19" max="19" width="15.5" customWidth="1"/>
-    <col min="20" max="20" width="14.75" customWidth="1"/>
-    <col min="23" max="23" width="12.875" customWidth="1"/>
-    <col min="24" max="24" width="11.25" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+    <col min="10" max="10" width="17.625" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="23.875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="21.375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.875" customWidth="1"/>
+    <col min="18" max="18" width="14.875" customWidth="1"/>
+    <col min="19" max="19" width="13.375" customWidth="1"/>
+    <col min="20" max="20" width="15.5" customWidth="1"/>
+    <col min="21" max="21" width="14.75" customWidth="1"/>
+    <col min="24" max="24" width="12.875" customWidth="1"/>
+    <col min="25" max="25" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:24">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1179,6 +1189,9 @@
       </c>
       <c r="X1" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1190,31 +1203,33 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="7" width="16.125" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="16.875" customWidth="1"/>
-    <col min="10" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="15.25" customWidth="1"/>
-    <col min="13" max="13" width="16.5" customWidth="1"/>
-    <col min="14" max="14" width="15.375" customWidth="1"/>
-    <col min="17" max="17" width="15.5" customWidth="1"/>
-    <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="8" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="15.25" customWidth="1"/>
+    <col min="14" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="15.375" customWidth="1"/>
+    <col min="18" max="18" width="15.5" customWidth="1"/>
+    <col min="20" max="20" width="13" customWidth="1"/>
+    <col min="21" max="21" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:24">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1286,10 +1301,13 @@
       <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="12:12">
-      <c r="L5" t="s">
-        <v>24</v>
+    <row r="5" spans="13:13">
+      <c r="M5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1301,37 +1319,37 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:N1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
-    <col min="5" max="5" width="18.875" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="20.75" customWidth="1"/>
-    <col min="9" max="9" width="18.75" customWidth="1"/>
-    <col min="10" max="10" width="14.25" customWidth="1"/>
-    <col min="11" max="11" width="10.25" customWidth="1"/>
-    <col min="12" max="12" width="17.375" customWidth="1"/>
-    <col min="13" max="13" width="19.75" customWidth="1"/>
-    <col min="14" max="14" width="15.25" customWidth="1"/>
-    <col min="17" max="17" width="14.875" customWidth="1"/>
-    <col min="18" max="18" width="14.75" customWidth="1"/>
-    <col min="19" max="19" width="10.625" customWidth="1"/>
-    <col min="20" max="20" width="13.125" customWidth="1"/>
-    <col min="22" max="22" width="10.625" customWidth="1"/>
-    <col min="23" max="23" width="12.5" customWidth="1"/>
-    <col min="24" max="24" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="20.75" customWidth="1"/>
+    <col min="10" max="10" width="18.75" customWidth="1"/>
+    <col min="11" max="11" width="14.25" customWidth="1"/>
+    <col min="12" max="12" width="10.25" customWidth="1"/>
+    <col min="13" max="13" width="17.375" customWidth="1"/>
+    <col min="14" max="14" width="19.75" customWidth="1"/>
+    <col min="15" max="15" width="15.25" customWidth="1"/>
+    <col min="18" max="18" width="14.875" customWidth="1"/>
+    <col min="19" max="19" width="14.75" customWidth="1"/>
+    <col min="20" max="20" width="10.625" customWidth="1"/>
+    <col min="21" max="21" width="13.125" customWidth="1"/>
+    <col min="23" max="23" width="10.625" customWidth="1"/>
+    <col min="24" max="24" width="12.5" customWidth="1"/>
+    <col min="25" max="25" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:24">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1402,6 +1420,9 @@
       </c>
       <c r="X1" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1413,34 +1434,35 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:N1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="12" max="12" width="16.125" customWidth="1"/>
-    <col min="13" max="13" width="15.625" customWidth="1"/>
-    <col min="14" max="14" width="13.125" customWidth="1"/>
-    <col min="17" max="17" width="16.625" customWidth="1"/>
-    <col min="18" max="18" width="16.25" customWidth="1"/>
-    <col min="20" max="20" width="13.75" customWidth="1"/>
-    <col min="22" max="22" width="12.875" customWidth="1"/>
-    <col min="23" max="23" width="13.875" customWidth="1"/>
-    <col min="24" max="24" width="10" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="18.875" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="13" max="13" width="16.125" customWidth="1"/>
+    <col min="14" max="14" width="15.625" customWidth="1"/>
+    <col min="15" max="15" width="13.125" customWidth="1"/>
+    <col min="18" max="18" width="16.625" customWidth="1"/>
+    <col min="19" max="19" width="16.25" customWidth="1"/>
+    <col min="21" max="21" width="13.75" customWidth="1"/>
+    <col min="23" max="23" width="12.875" customWidth="1"/>
+    <col min="24" max="24" width="13.875" customWidth="1"/>
+    <col min="25" max="25" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:24">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1511,6 +1533,9 @@
       </c>
       <c r="X1" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1522,32 +1547,38 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
-    <col min="9" max="9" width="19.875" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="12" max="12" width="17.75" customWidth="1"/>
-    <col min="13" max="13" width="15.75" customWidth="1"/>
-    <col min="14" max="14" width="15.125" customWidth="1"/>
-    <col min="17" max="17" width="15.125" customWidth="1"/>
-    <col min="18" max="18" width="16.75" customWidth="1"/>
-    <col min="19" max="19" width="14.125" customWidth="1"/>
-    <col min="20" max="20" width="14.5" customWidth="1"/>
-    <col min="23" max="23" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="19.875" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="17.75" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="15" max="15" width="15.125" customWidth="1"/>
+    <col min="16" max="16" width="19.125" customWidth="1"/>
+    <col min="17" max="17" width="25.375" customWidth="1"/>
+    <col min="18" max="18" width="15.125" customWidth="1"/>
+    <col min="19" max="19" width="16.75" customWidth="1"/>
+    <col min="20" max="20" width="14.125" customWidth="1"/>
+    <col min="21" max="21" width="14.5" customWidth="1"/>
+    <col min="24" max="24" width="14.5" customWidth="1"/>
+    <col min="25" max="25" width="9.375" customWidth="1"/>
+    <col min="26" max="26" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:24">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:26">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1618,6 +1649,12 @@
       </c>
       <c r="X1" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
